--- a/similarities/split_global/harmonic_similarity_timestamps_254.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_254.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:01:03.840000', '0:01:07.540000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:21.620000', '0:00:25.320000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=21.62</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:03.292358', '0:01:10.397664')]</t>
+          <t>('0:00:04.840000', '0:00:10.640000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:03:08.260000', '0:03:12.260000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=63.292358']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=188.26']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:08.340000', '0:00:10.620000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:00.421247', '0:00:07.505864')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:38.250000', '0:00:42.100000')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:17.737518', '0:00:22.996837')]</t>
+          <t>('0:00:41.700000', '0:00:57.940000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=38.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:06.220000', '0:01:12.300000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:48.001000', '0:00:54.307000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=66.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.010000', '0:00:02.260000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:22.850000', '0:00:26.110000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=1.01']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=22.85']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:15.800000')]</t>
+          <t>('0:00:38.060000', '0:00:41.080000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:39.360000')]</t>
+          <t>('0:00:27.940000', '0:00:33.160000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=38.06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=27.94</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:23.140000')]</t>
+          <t>('0:00:02.360000', '0:00:11.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:17.580000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:10.820000', '0:00:17.080000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7/G#']]</t>
+          <t>['G:min7', 'C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['D:min7', 'G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:05.780000', '0:00:12.600000')]</t>
+          <t>('0:00:09.060000', '0:00:13.370000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:00:04.240000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=5.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:41.300000', '0:00:43.480000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01.900000', '0:00:07.720000')]</t>
+          <t>('0:01:45', '0:01:48.240000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=1.9']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:18.783807', '0:00:24.845034')]</t>
+          <t>('0:00:08.482392', '0:00:11.666439')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:48.180000', '0:00:50.270000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=18.783807']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=48.18']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:00:24.180000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:31.740000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:44.200000', '0:00:59.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
